--- a/3.INTRO TO ML/ML_statistics.xlsx
+++ b/3.INTRO TO ML/ML_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\Downloads\EMLYON CLASSES\PYTHON\3.Intro to ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07981F10-DE29-4A78-BF5F-4DD352CD49E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C199B6-12C6-481E-B79A-7B106561F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D806DD62-156C-4628-97AD-FC2958358D9D}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,20 +218,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,7 +230,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0B51A-3AC6-4F9D-94CF-E531ACB3FBA5}">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,186 +589,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>75</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="8"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>52</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D6" s="9"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f>F6*H4/H6</f>
         <v>49.351351351351354</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f>G6*H4/H6</f>
         <v>33.648648648648646</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f>SUM(F12:G12)</f>
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="8"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f>F6*H5/H6</f>
         <v>38.648648648648646</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f>G6*H5/H6</f>
         <v>26.351351351351351</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" ref="H13:H14" si="0">SUM(F13:G13)</f>
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="9"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>SUM(F12:F13)</f>
         <v>88</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f>SUM(G12:G13)</f>
         <v>60</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J19" t="s">
@@ -776,48 +776,48 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f>(F4-F12)/SQRT(F12)</f>
         <v>3.6510263202884436</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f>(G4-G12)/SQRT(G12)</f>
         <v>-4.4216124525762268</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="8"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f>(F5-F13)/SQRT(F13)</f>
         <v>-4.1256970224891596</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f>(G5-G13)/SQRT(G13)</f>
         <v>4.9964672204153091</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E25">
@@ -826,16 +826,16 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="3">
         <f>_xlfn.CHISQ.DIST.RT(E25,(E27-1)*(E28-1))</f>
         <v>5.0359011394821511E-18</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27">
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E28">
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29">
@@ -861,15 +861,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
